--- a/genai-integration-langchain/Scripts/CurriculumTestScriptsAndData/AutoKGTest1.xlsx
+++ b/genai-integration-langchain/Scripts/CurriculumTestScriptsAndData/AutoKGTest1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mnj-7\Medialogi\LangchainGenAIFromNeo4jTut\genai-integration-langchain\Scripts\CurriculumTestScriptsAndData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00189DB-2BE1-4791-BC2F-E538153903A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF17022-67B7-4BD0-BBF7-5C168B16E7C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="290">
   <si>
     <t>Test ID</t>
   </si>
@@ -925,6 +925,9 @@
   </si>
   <si>
     <t>Ped (Total)</t>
+  </si>
+  <si>
+    <t>Both tabel and figure will show average among five tests! Not just this one</t>
   </si>
 </sst>
 </file>
@@ -1037,7 +1040,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Manula</a:t>
+              <a:t>Manual</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -2016,16 +2019,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>376237</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1604962</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>881062</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2340,11 +2343,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="207.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="102.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -3987,22 +3994,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D1377F-6163-4647-90D8-36B35B188AED}">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView zoomScale="81" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -4790,6 +4801,9 @@
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>289</v>
+      </c>
       <c r="L44">
         <v>1</v>
       </c>
